--- a/AUTOmato_DB.xlsx
+++ b/AUTOmato_DB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\scott\OneDrive\Desktop\Programming\AUTOmato\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AB0FB24-7A98-46FA-BF78-C634E5E057CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD090369-B962-4B3D-B68D-C221C91AD475}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{9BA8CFAC-3B32-4190-A400-425BC4FAEDDF}"/>
+    <workbookView xWindow="10452" yWindow="2352" windowWidth="13824" windowHeight="7176" activeTab="4" xr2:uid="{9BA8CFAC-3B32-4190-A400-425BC4FAEDDF}"/>
   </bookViews>
   <sheets>
     <sheet name="Devices" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="35">
   <si>
     <t>ID</t>
   </si>
@@ -82,9 +82,6 @@
     <t>Time</t>
   </si>
   <si>
-    <t>Green House</t>
-  </si>
-  <si>
     <t>Type</t>
   </si>
   <si>
@@ -119,6 +116,33 @@
   </si>
   <si>
     <t>Reason for Death</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>A3</t>
+  </si>
+  <si>
+    <t>B1</t>
+  </si>
+  <si>
+    <t>B2</t>
+  </si>
+  <si>
+    <t>greenhouse</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>idlocations</t>
+  </si>
+  <si>
+    <t>plant_type</t>
   </si>
 </sst>
 </file>
@@ -480,7 +504,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F18" sqref="F18"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -497,9 +521,6 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D1" t="s">
         <v>14</v>
       </c>
       <c r="E1" t="s">
@@ -520,13 +541,10 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
+        <v>15</v>
+      </c>
+      <c r="E2" t="s">
+        <v>26</v>
       </c>
       <c r="F2" t="s">
         <v>8</v>
@@ -543,13 +561,10 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <v>4</v>
+        <v>16</v>
+      </c>
+      <c r="E3" t="s">
+        <v>27</v>
       </c>
       <c r="F3" t="s">
         <v>9</v>
@@ -563,13 +578,10 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4">
-        <v>2</v>
-      </c>
-      <c r="E4">
-        <v>3</v>
+        <v>16</v>
+      </c>
+      <c r="E4" t="s">
+        <v>28</v>
       </c>
       <c r="F4" t="s">
         <v>10</v>
@@ -583,48 +595,59 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37C93391-9EB4-4585-82D8-35CCB7B53992}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
+      <selection pane="bottomLeft" activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.88671875" customWidth="1"/>
+    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
+        <v>30</v>
+      </c>
+      <c r="D1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>26</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2</v>
+        <v>18</v>
+      </c>
+      <c r="C2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>29</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3">
         <v>2</v>
       </c>
     </row>
@@ -639,7 +662,7 @@
   <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -649,22 +672,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" t="s">
         <v>21</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>22</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>23</v>
-      </c>
-      <c r="F1" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -676,7 +699,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FAB12A2-FD7E-4492-8E6F-890C149DC554}">
   <dimension ref="A1:E1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
@@ -692,16 +715,16 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" t="s">
         <v>25</v>
-      </c>
-      <c r="E1" t="s">
-        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -713,8 +736,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{001D8A12-B3D1-40C1-82AC-1E2E6379D1AA}">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
